--- a/大厂信息.xlsx
+++ b/大厂信息.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F0BFBA-EE84-42FF-859E-CF34D5D11CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F137A9C-E632-46FC-A2C0-6749291C380A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20424" yWindow="3000" windowWidth="22152" windowHeight="11832" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="岗位要求" sheetId="1" r:id="rId1"/>
     <sheet name="大中小厂" sheetId="2" r:id="rId2"/>
     <sheet name="信息差" sheetId="3" r:id="rId3"/>
-    <sheet name="刷好感" sheetId="4" r:id="rId4"/>
-    <sheet name="厂间对比" sheetId="5" r:id="rId5"/>
+    <sheet name="厂间对比" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="158">
   <si>
     <t>城市</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1149,11 +1148,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我也关注了字节技术团队和豆包的公众号；
-我在研究生阶段PICO开发经验较多，并在b站分享了一些自己的开发过程和成果；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1207,22 +1201,6 @@
   </si>
   <si>
     <t>科大讯飞：笔试居然有附加题！！没看见，直接漏题笔试挂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿里</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《管理三板斧》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腾讯云</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI黑客松（腾讯云AI代码助手）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1447,7 +1425,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1491,12 +1469,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1518,6 +1490,15 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1535,15 +1516,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="fill"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="fill"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1552,11 +1524,11 @@
   </cellStyles>
   <dxfs count="10">
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1639,8 +1611,8 @@
     <tableColumn id="5" xr3:uid="{11EA0C83-823A-4FA2-8915-2ADD475A5F34}" name="核心业务" dataDxfId="4"/>
     <tableColumn id="6" xr3:uid="{06233B6F-4E1D-4302-92AC-7C3CCD380D98}" name="面试" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{065D7254-8066-43B0-8411-CC7BE545EB54}" name="白菜/sp/ssp" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{B749BEBC-0555-4BFA-87EE-064B85A27385}" name="面试体验" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{5515683B-5C2F-4B28-9EB9-0C96564C45DA}" name="其他" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{B749BEBC-0555-4BFA-87EE-064B85A27385}" name="面试体验" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{5515683B-5C2F-4B28-9EB9-0C96564C45DA}" name="其他" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2139,7 +2111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B742DD32-DB14-42AA-92E2-9F2A36E24884}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -2150,7 +2122,7 @@
     <col min="3" max="3" width="25.640625" style="4" customWidth="1"/>
     <col min="4" max="4" width="40.640625" style="4" customWidth="1"/>
     <col min="5" max="6" width="25.640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="25.640625" style="31" customWidth="1"/>
+    <col min="7" max="7" width="25.640625" style="23" customWidth="1"/>
     <col min="8" max="8" width="25.640625" style="4" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="4"/>
   </cols>
@@ -2174,8 +2146,8 @@
       <c r="F1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="30" t="s">
-        <v>161</v>
+      <c r="G1" s="22" t="s">
+        <v>156</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>131</v>
@@ -2255,8 +2227,8 @@
       <c r="D7" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="31" t="s">
-        <v>162</v>
+      <c r="G7" s="23" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -2491,7 +2463,7 @@
       <c r="F29" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="G29" s="32" t="s">
+      <c r="G29" s="24" t="s">
         <v>133</v>
       </c>
       <c r="H29" s="4" t="s">
@@ -2757,18 +2729,18 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>153</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="13" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2778,55 +2750,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B43858FB-9D7B-48A2-9DC3-62A4CDB34FFD}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="50.05" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="15"/>
-    <col min="2" max="2" width="79.78515625" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="15"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="50.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="50.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="50.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>158</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1DB9667-D34F-4961-9E25-8E658D691383}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2837,80 +2764,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="20" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
+      <c r="C2" s="19">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="29"/>
+      <c r="B3" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="20">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="30"/>
+      <c r="B4" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="21">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="21">
+      <c r="B5" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="20">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="29"/>
+      <c r="B6" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="20">
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="28"/>
-      <c r="B3" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C3" s="22">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="29"/>
+      <c r="B7" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="20">
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="29"/>
-      <c r="B4" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" s="23">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="22">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="28"/>
-      <c r="B6" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C6" s="22">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="28"/>
-      <c r="B7" s="3" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="C7" s="22">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">
